--- a/AutoBOM.xlsx
+++ b/AutoBOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="184">
   <si>
     <t>ref</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>DMN65D8L-7</t>
-  </si>
-  <si>
-    <t>2N7002E</t>
   </si>
   <si>
     <t>Screw_Terminal_01x04</t>
@@ -836,8 +833,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G56" tableType="xml" totalsRowShown="0" connectionId="1">
   <autoFilter ref="A1:G56"/>
-  <sortState ref="A2:G93">
-    <sortCondition ref="B1:B93"/>
+  <sortState ref="A2:G56">
+    <sortCondition ref="A1:A56"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="15" uniqueName="ref" name="ref">
@@ -1127,18 +1124,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="98.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
@@ -1172,56 +1169,56 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -1232,563 +1229,559 @@
         <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F8" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F9" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F11" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F15" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F19" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F24" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -1799,204 +1792,206 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F32" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F33" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F34" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F35" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F37" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37" t="s">
         <v>178</v>
@@ -2004,94 +1999,94 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="F39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2102,172 +2097,172 @@
         <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F43" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F47" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
@@ -2278,22 +2273,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="F50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
         <v>178</v>
@@ -2301,42 +2296,40 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
@@ -2347,16 +2340,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>166</v>
@@ -2370,69 +2363,69 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2">
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F55" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
